--- a/wedding-bell_design/Wedding Bell Webデザイン3原稿.xlsx
+++ b/wedding-bell_design/Wedding Bell Webデザイン3原稿.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>デザイン3　原稿</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>二次会の出欠確認ブロック</t>
+  </si>
+  <si>
+    <t>返答をお願いする期限</t>
   </si>
   <si>
     <t>デザイン以外に募りたいこと</t>
@@ -1799,7 +1802,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C102"/>
+  <dimension ref="A2:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B5" xSplit="1" ySplit="4" activePane="bottomRight" state="frozen"/>
@@ -2468,21 +2471,23 @@
       <c r="C92" s="12"/>
     </row>
     <row r="93" ht="18.3" customHeight="1">
-      <c r="A93" t="s" s="13">
+      <c r="A93" t="s" s="10">
         <v>76</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="12"/>
     </row>
     <row r="94" ht="18.3" customHeight="1">
-      <c r="A94" t="s" s="10">
-        <v>75</v>
+      <c r="A94" t="s" s="13">
+        <v>77</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" ht="18.3" customHeight="1">
-      <c r="A95" s="15"/>
+      <c r="A95" t="s" s="10">
+        <v>76</v>
+      </c>
       <c r="B95" s="11"/>
       <c r="C95" s="12"/>
     </row>
@@ -2491,17 +2496,15 @@
       <c r="B96" s="11"/>
       <c r="C96" s="12"/>
     </row>
-    <row r="97" ht="20.35" customHeight="1">
-      <c r="A97" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="B97" t="s" s="16">
+    <row r="97" ht="18.3" customHeight="1">
+      <c r="A97" s="15"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="12"/>
+    </row>
+    <row r="98" ht="20.35" customHeight="1">
+      <c r="A98" t="s" s="10">
         <v>78</v>
       </c>
-      <c r="C97" s="12"/>
-    </row>
-    <row r="98" ht="20.35" customHeight="1">
-      <c r="A98" s="15"/>
       <c r="B98" t="s" s="16">
         <v>79</v>
       </c>
@@ -2534,14 +2537,21 @@
         <v>83</v>
       </c>
       <c r="C102" s="12"/>
+    </row>
+    <row r="103" ht="20.35" customHeight="1">
+      <c r="A103" s="15"/>
+      <c r="B103" t="s" s="16">
+        <v>84</v>
+      </c>
+      <c r="C103" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B101" r:id="rId1" location="" tooltip="" display="https://wedding-bell-web.com"/>
-    <hyperlink ref="B102" r:id="rId2" location="" tooltip="" display="web@wedding-bell-web.com"/>
+    <hyperlink ref="B102" r:id="rId1" location="" tooltip="" display="https://wedding-bell-web.com"/>
+    <hyperlink ref="B103" r:id="rId2" location="" tooltip="" display="web@wedding-bell-web.com"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2572,7 +2582,7 @@
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2625,10 +2635,10 @@
     </row>
     <row r="8" ht="18.3" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="22"/>
     </row>
@@ -2655,14 +2665,14 @@
     </row>
     <row r="12" ht="18.3" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
     </row>
     <row r="13" ht="18.3" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -2676,169 +2686,169 @@
     </row>
     <row r="15" ht="18.3" customHeight="1">
       <c r="A15" t="s" s="13">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
       <c r="A16" t="s" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
       <c r="A17" t="s" s="14">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" s="22"/>
     </row>
     <row r="18" ht="18.3" customHeight="1">
       <c r="A18" t="s" s="14">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" s="22"/>
     </row>
     <row r="19" ht="33.55" customHeight="1">
       <c r="A19" t="s" s="14">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19" s="22"/>
     </row>
     <row r="20" ht="18.3" customHeight="1">
       <c r="A20" t="s" s="14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
     </row>
     <row r="21" ht="18.3" customHeight="1">
       <c r="A21" t="s" s="13">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
     </row>
     <row r="22" ht="18.3" customHeight="1">
       <c r="A22" t="s" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="22"/>
     </row>
     <row r="23" ht="18.3" customHeight="1">
       <c r="A23" t="s" s="14">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" s="22"/>
     </row>
     <row r="24" ht="18.3" customHeight="1">
       <c r="A24" t="s" s="14">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" ht="33.55" customHeight="1">
       <c r="A25" t="s" s="14">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" ht="18.3" customHeight="1">
       <c r="A26" t="s" s="14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
     </row>
     <row r="27" ht="18.3" customHeight="1">
       <c r="A27" t="s" s="13">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
     </row>
     <row r="28" ht="18.3" customHeight="1">
       <c r="A28" t="s" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
     </row>
     <row r="29" ht="18.3" customHeight="1">
       <c r="A29" t="s" s="14">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
     </row>
     <row r="30" ht="18.3" customHeight="1">
       <c r="A30" t="s" s="14">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" ht="18.3" customHeight="1">
       <c r="A31" t="s" s="14">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" ht="33.55" customHeight="1">
       <c r="A32" t="s" s="14">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" ht="18.3" customHeight="1">
       <c r="A33" t="s" s="14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
     </row>
     <row r="34" ht="18.3" customHeight="1">
       <c r="A34" t="s" s="13">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
     </row>
     <row r="35" ht="18.3" customHeight="1">
       <c r="A35" t="s" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -2865,51 +2875,51 @@
     </row>
     <row r="40" ht="20.35" customHeight="1">
       <c r="A40" t="s" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s" s="16">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" s="22"/>
     </row>
     <row r="41" ht="20.35" customHeight="1">
       <c r="A41" s="15"/>
       <c r="B41" t="s" s="16">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="22"/>
     </row>
     <row r="42" ht="20.35" customHeight="1">
       <c r="A42" s="15"/>
       <c r="B42" t="s" s="16">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="22"/>
     </row>
     <row r="43" ht="20.35" customHeight="1">
       <c r="A43" s="15"/>
       <c r="B43" t="s" s="16">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="22"/>
     </row>
     <row r="44" ht="20.35" customHeight="1">
       <c r="A44" s="15"/>
       <c r="B44" t="s" s="16">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" s="22"/>
     </row>
     <row r="45" ht="20.35" customHeight="1">
       <c r="A45" s="15"/>
       <c r="B45" t="s" s="16">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" ht="18.3" customHeight="1">
       <c r="A46" t="s" s="13">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -2951,59 +2961,59 @@
     </row>
     <row r="52" ht="18.3" customHeight="1">
       <c r="A52" t="s" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
     </row>
     <row r="53" ht="18.3" customHeight="1">
       <c r="A53" t="s" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
     </row>
     <row r="54" ht="18.3" customHeight="1">
       <c r="A54" t="s" s="10">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
     </row>
     <row r="55" ht="18.3" customHeight="1">
       <c r="A55" t="s" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
     </row>
     <row r="56" ht="18.3" customHeight="1">
       <c r="A56" t="s" s="13">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
     </row>
     <row r="57" ht="18.3" customHeight="1">
       <c r="A57" t="s" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
     </row>
     <row r="58" ht="18.3" customHeight="1">
       <c r="A58" t="s" s="14">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
     </row>
     <row r="59" ht="18.3" customHeight="1">
       <c r="A59" t="s" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C59" s="22"/>
     </row>
@@ -3012,71 +3022,71 @@
         <v>9</v>
       </c>
       <c r="B60" t="s" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="22"/>
     </row>
     <row r="61" ht="18.3" customHeight="1">
       <c r="A61" t="s" s="14">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" s="22"/>
     </row>
     <row r="62" ht="18.3" customHeight="1">
       <c r="A62" t="s" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C62" s="22"/>
     </row>
     <row r="63" ht="33.55" customHeight="1">
       <c r="A63" t="s" s="14">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C63" s="22"/>
     </row>
     <row r="64" ht="18.3" customHeight="1">
       <c r="A64" t="s" s="14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
     </row>
     <row r="65" ht="18.3" customHeight="1">
       <c r="A65" t="s" s="13">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
     </row>
     <row r="66" ht="18.3" customHeight="1">
       <c r="A66" t="s" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
     </row>
     <row r="67" ht="18.3" customHeight="1">
       <c r="A67" t="s" s="14">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
     </row>
     <row r="68" ht="18.3" customHeight="1">
       <c r="A68" t="s" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" s="22"/>
     </row>
@@ -3085,71 +3095,71 @@
         <v>9</v>
       </c>
       <c r="B69" t="s" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C69" s="22"/>
     </row>
     <row r="70" ht="18.3" customHeight="1">
       <c r="A70" t="s" s="14">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C70" s="22"/>
     </row>
     <row r="71" ht="18.3" customHeight="1">
       <c r="A71" t="s" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C71" s="22"/>
     </row>
     <row r="72" ht="33.55" customHeight="1">
       <c r="A72" t="s" s="14">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" t="s" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" s="22"/>
     </row>
     <row r="73" ht="18.3" customHeight="1">
       <c r="A73" t="s" s="14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
     </row>
     <row r="74" ht="18.3" customHeight="1">
       <c r="A74" t="s" s="13">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
     </row>
     <row r="75" ht="18.3" customHeight="1">
       <c r="A75" t="s" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
     </row>
     <row r="76" ht="18.3" customHeight="1">
       <c r="A76" t="s" s="14">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
     </row>
     <row r="77" ht="18.3" customHeight="1">
       <c r="A77" t="s" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C77" s="22"/>
     </row>
@@ -3158,54 +3168,54 @@
         <v>9</v>
       </c>
       <c r="B78" t="s" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C78" s="22"/>
     </row>
     <row r="79" ht="18.3" customHeight="1">
       <c r="A79" t="s" s="14">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C79" s="22"/>
     </row>
     <row r="80" ht="18.3" customHeight="1">
       <c r="A80" t="s" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C80" s="22"/>
     </row>
     <row r="81" ht="33.55" customHeight="1">
       <c r="A81" t="s" s="14">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C81" s="22"/>
     </row>
     <row r="82" ht="18.3" customHeight="1">
       <c r="A82" t="s" s="14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="22"/>
     </row>
     <row r="83" ht="18.3" customHeight="1">
       <c r="A83" t="s" s="13">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="22"/>
     </row>
     <row r="84" ht="18.3" customHeight="1">
       <c r="A84" t="s" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
@@ -3232,38 +3242,38 @@
     </row>
     <row r="89" ht="20.35" customHeight="1">
       <c r="A89" t="s" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s" s="16">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C89" s="22"/>
     </row>
     <row r="90" ht="20.35" customHeight="1">
       <c r="A90" s="15"/>
       <c r="B90" t="s" s="16">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C90" s="22"/>
     </row>
     <row r="91" ht="20.35" customHeight="1">
       <c r="A91" s="15"/>
       <c r="B91" t="s" s="16">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C91" s="22"/>
     </row>
     <row r="92" ht="20.35" customHeight="1">
       <c r="A92" s="15"/>
       <c r="B92" t="s" s="16">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C92" s="22"/>
     </row>
     <row r="93" ht="20.35" customHeight="1">
       <c r="A93" s="15"/>
       <c r="B93" t="s" s="16">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C93" s="22"/>
     </row>

--- a/wedding-bell_design/Wedding Bell Webデザイン3原稿.xlsx
+++ b/wedding-bell_design/Wedding Bell Webデザイン3原稿.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="ベーシック - デザイン3　原稿" sheetId="1" r:id="rId4"/>
     <sheet name="OP延長 - OP延長3　原稿" sheetId="2" r:id="rId5"/>
+    <sheet name="つなぎページ - つなぎページ　原稿" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>デザイン3　原稿</t>
   </si>
@@ -438,6 +439,45 @@
   </si>
   <si>
     <t>ご指定がなければ、二次会の写真をご覧いただけます</t>
+  </si>
+  <si>
+    <t>つなぎページ　原稿</t>
+  </si>
+  <si>
+    <t>デザイン1</t>
+  </si>
+  <si>
+    <t>写真の指定</t>
+  </si>
+  <si>
+    <t>メイン画像</t>
+  </si>
+  <si>
+    <t>ごあいさつブロック</t>
+  </si>
+  <si>
+    <t>コンテンツお楽しみ予告ブロック</t>
+  </si>
+  <si>
+    <t>背景画像</t>
+  </si>
+  <si>
+    <t>コンテンツ1タイトル</t>
+  </si>
+  <si>
+    <t>コンテンツ1説明文</t>
+  </si>
+  <si>
+    <t>コンテンツ2タイトル</t>
+  </si>
+  <si>
+    <t>コンテンツ2説明文</t>
+  </si>
+  <si>
+    <t>コンテンツ3タイトル</t>
+  </si>
+  <si>
+    <t>コンテンツ3説明文</t>
   </si>
 </sst>
 </file>
@@ -647,7 +687,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -715,6 +755,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3298,4 +3341,247 @@
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B5" xSplit="1" ySplit="4" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25.0156" style="23" customWidth="1"/>
+    <col min="2" max="2" width="63.2188" style="23" customWidth="1"/>
+    <col min="3" max="3" width="26.7734" style="23" customWidth="1"/>
+    <col min="4" max="256" width="16.3516" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.3" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" ht="20.3" customHeight="1">
+      <c r="A3" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1">
+      <c r="A4" t="s" s="5">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" ht="18.5" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>123</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" t="s" s="13">
+        <v>124</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" ht="33.3" customHeight="1">
+      <c r="A13" t="s" s="13">
+        <v>125</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" t="s" s="14">
+        <v>126</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" t="s" s="14">
+        <v>127</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" t="s" s="14">
+        <v>128</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" t="s" s="14">
+        <v>129</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" t="s" s="14">
+        <v>130</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" t="s" s="14">
+        <v>131</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" t="s" s="14">
+        <v>132</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" ht="20.35" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s" s="16">
+        <v>79</v>
+      </c>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" ht="20.35" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" t="s" s="16">
+        <v>80</v>
+      </c>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" ht="20.35" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" t="s" s="16">
+        <v>81</v>
+      </c>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" ht="20.35" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" t="s" s="16">
+        <v>82</v>
+      </c>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" ht="20.35" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" t="s" s="16">
+        <v>83</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" ht="20.35" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" t="s" s="16">
+        <v>107</v>
+      </c>
+      <c r="C30" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B29" r:id="rId1" location="" tooltip="" display="https://wedding-bell-web.com"/>
+    <hyperlink ref="B30" r:id="rId2" location="" tooltip="" display="web-admin@wedding-bell-web.com"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>